--- a/pcxzf/pcxzf/jiancefawenjian/本周考核反馈 v1.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/本周考核反馈 v1.0.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>平昌县信访局</t>
+          <t>平昌县白衣镇人民政府</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
+          <t>平昌县驷马镇人民政府</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5">
@@ -491,23 +491,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>平昌县土兴镇人民政府</t>
+          <t>平昌县龙岗镇人民政府</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
+          <t>巴中市平昌生态环境局</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -517,7 +517,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县应急管理局</t>
+          <t>平昌县三十二梁镇人民政府</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -527,7 +527,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>平昌县泥龙镇人民政府</t>
+          <t>平昌县土兴镇人民政府</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -537,203 +537,125 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>平昌县土垭镇人民政府</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>平昌县审计局</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>平昌县行政审批和数据局</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>二、本周各单位扣分详情</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>扣分时间</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>分值</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>扣分原因</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>路径</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>备注1</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>备注2</t>
-        </is>
+      <c r="B13" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>平昌县农业农村局</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>涉农补贴</t>
-        </is>
+          <t>平昌县西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>平昌县应急管理局</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
+          <t>平昌县财政局</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平昌县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>市场监管</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>平昌县信访局</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
+          <t>平昌县邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>平昌县医疗保障局</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>行政许可/处罚</t>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>二、本周各单位扣分详情</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>平昌县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>放管服改革</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>扣分时间</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>分值</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>扣分原因</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>路径</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>备注1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>备注2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>平昌县土兴镇人民政府</t>
+          <t>平昌县经济和信息化局</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>45537</v>
+        <v>45586</v>
       </c>
       <c r="C20" t="n">
         <v>-1</v>
@@ -745,18 +667,18 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>民生保障</t>
+          <t>统计信息</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>平昌县泥龙镇人民政府</t>
+          <t>平昌县财政局</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>45537</v>
+        <v>45586</v>
       </c>
       <c r="C21" t="n">
         <v>-1</v>
@@ -768,14 +690,423 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>平昌县审计局</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>巴中市平昌生态环境局</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>预算/决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>平昌县医疗保障局</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>统计信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>平昌县行政审批和数据局</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>放管服改革</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>平昌县西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>平昌县龙岗镇人民政府</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>平昌县龙岗镇人民政府</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>平昌县土垭镇人民政府</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>规划计划</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>平昌县三十二梁镇人民政府</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>平昌县医疗保障局</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>机器人-政策超期</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pcxzf/pcxzf/jiancefawenjian/本周考核反馈 v1.0.xlsx
+++ b/pcxzf/pcxzf/jiancefawenjian/本周考核反馈 v1.0.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>平昌县白衣镇人民政府</t>
+          <t>巴中市平昌生态环境局</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>平昌县医疗保障局</t>
+          <t>平昌县佛头山管理委员会</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -497,7 +497,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>平昌县龙岗镇人民政府</t>
+          <t>平昌县经济和信息化局</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -507,7 +507,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县医疗保障局</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -517,41 +517,55 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县三十二梁镇人民政府</t>
+          <t>平昌县卫生健康局</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>平昌县土兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>平昌县土垭镇人民政府</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>二、本周各单位扣分详情</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>平昌县审计局</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1</v>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>扣分时间</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>分值</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>扣分原因</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>路径</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>备注1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>备注2</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -560,102 +574,192 @@
           <t>平昌县经济和信息化局</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>-1</v>
+      <c r="B12" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>平昌县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1</v>
+          <t>平昌县卫生健康局</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-1</v>
+          <t>巴中市平昌生态环境局</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>规划计划</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-1</v>
+          <t>巴中市平昌生态环境局</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>环保督察</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>平昌县邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-1</v>
+          <t>巴中市平昌生态环境局</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>平昌县医疗保障局</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>二、本周各单位扣分详情</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>平昌县佛头山管理委员会</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>民生保障</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>扣分时间</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>分值</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>扣分原因</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>路径</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>备注1</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>备注2</t>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>平昌县佛头山管理委员会</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>机器人-栏目超期</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>平昌县经济和信息化局</t>
+          <t>平昌县驷马镇人民政府</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>45586</v>
+        <v>45705</v>
       </c>
       <c r="C20" t="n">
         <v>-1</v>
@@ -674,11 +778,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>平昌县财政局</t>
+          <t>平昌县驷马镇人民政府</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>45586</v>
+        <v>45705</v>
       </c>
       <c r="C21" t="n">
         <v>-1</v>
@@ -690,18 +794,18 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>民生保障</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>平昌县审计局</t>
+          <t>平昌县驷马镇人民政府</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>45586</v>
+        <v>45705</v>
       </c>
       <c r="C22" t="n">
         <v>-1</v>
@@ -720,393 +824,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县经济和信息化局</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>45586</v>
+        <v>45705</v>
       </c>
       <c r="C23" t="n">
         <v>-1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>机器人-栏目超期</t>
+          <t>机器人-统计信息缺失</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>预算/决算</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>平昌县医疗保障局</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>统计信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>平昌县行政审批和数据局</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>放管服改革</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>平昌县白衣镇人民政府</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>统计信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>平昌县白衣镇人民政府</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>民生保障</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>平昌县白衣镇人民政府</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>平昌县西兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>平昌县龙岗镇人民政府</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>民生保障</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>平昌县龙岗镇人民政府</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>平昌县土垭镇人民政府</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>民生保障</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>平昌县驷马镇人民政府</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>统计信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>平昌县驷马镇人民政府</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>民生保障</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>平昌县驷马镇人民政府</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>平昌县土兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>规划计划</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>平昌县三十二梁镇人民政府</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>其他法定信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>平昌县邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>机器人-栏目超期</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>统计信息</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>平昌县医疗保障局</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>45586</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>机器人-政策超期</t>
+          <t>2021</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
